--- a/filtered_employees.xlsx
+++ b/filtered_employees.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,84 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Surname</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vacation Days</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Bonuses</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Stancu</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Luiza</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nistor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6406</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>553</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/filtered_employees.xlsx
+++ b/filtered_employees.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vacation Days</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Bonuses</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cooper</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4401</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Janice</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6595</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Suzanne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5498</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eleanor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roberts</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reynolds</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8113</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Griffiths</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7279</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Murphy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5934</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roberts</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3293</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dennis</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nicholson</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4603</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7919</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Russell</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>O'Sullivan</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6783</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colin</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5207</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Susan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cox</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8882</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4502</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Robson</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8502</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Graham</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Simmons</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6596</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iain</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6356</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Abbie</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chadwick</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9405</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4540</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5774</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Payne</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4649</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Holly</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O'Brien</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3891</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fletcher</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3308</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Carole</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hawkins</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5137</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6816</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Davies</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9731</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Davies</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5907</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pauline</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chapman</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5462</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4405</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Louise</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5958</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Stephens</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8304</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Alexandra</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3475</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Benson</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8512</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4615</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Reed</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8209</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Morris</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6550</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6267</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pritchard</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6264</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Bethan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5095</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>8887</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6145</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Brennan</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>7224</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Judith</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hardy</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5102</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kenneth</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9746</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Terry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gardner</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5829</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lorraine</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Booth</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>9593</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Murray</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>